--- a/files/OS2021Autumn/Grading.xlsx
+++ b/files/OS2021Autumn/Grading.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chewei\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chewei\Dropbox\WeiWork\Course_CGU\2021Autumn\OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22590" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22590" windowHeight="8580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="student_export" sheetId="1" r:id="rId1"/>
@@ -1568,7 +1568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="S57" sqref="S57"/>
     </sheetView>
   </sheetViews>
@@ -4617,8 +4617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I60"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I11" sqref="A11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -4942,14 +4942,14 @@
         <v>20</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H11">
         <v>22</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -6452,6 +6452,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
